--- a/Results/MultivModels_DOnsetMin#0#Max#30_AgeMin#70#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/performances_minNPV_test.xlsx
+++ b/Results/MultivModels_DOnsetMin#0#Max#30_AgeMin#70#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/performances_minNPV_test.xlsx
@@ -503,46 +503,46 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.697509512279488</v>
+        <v>0.672655462184874</v>
       </c>
       <c r="C4">
-        <v>0.01000815058753168</v>
+        <v>0.008796248480559155</v>
       </c>
       <c r="D4">
-        <v>0.5259213079292704</v>
+        <v>0.5195074224147541</v>
       </c>
       <c r="E4">
-        <v>0.002133255559358949</v>
+        <v>0.001823806437467379</v>
       </c>
       <c r="F4">
-        <v>0.9848584595128373</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="G4">
-        <v>0.007023730690012941</v>
+        <v>0.003630053615580109</v>
       </c>
       <c r="H4">
-        <v>0.3589813892925707</v>
+        <v>0.3517186091705987</v>
       </c>
       <c r="I4">
-        <v>0.001917233790906137</v>
+        <v>0.001570884379058057</v>
       </c>
       <c r="J4">
-        <v>0.9264981855475948</v>
+        <v>0.9260846930846931</v>
       </c>
       <c r="K4">
-        <v>0.037122229264133</v>
+        <v>0.04453297712940518</v>
       </c>
       <c r="L4">
-        <v>0.074714631615358</v>
+        <v>0.0563235294117647</v>
       </c>
       <c r="M4">
-        <v>0.01095239097707169</v>
+        <v>0.007051278798124411</v>
       </c>
       <c r="N4">
-        <v>0.3882086167800454</v>
+        <v>0.3749514563106795</v>
       </c>
       <c r="O4">
-        <v>0.005648367585815273</v>
+        <v>0.004283879997441176</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -550,46 +550,46 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7225563453010146</v>
+        <v>0.6775336134453782</v>
       </c>
       <c r="C5">
-        <v>0.009231157580326665</v>
+        <v>0.008797467789915969</v>
       </c>
       <c r="D5">
-        <v>0.5375114197489566</v>
+        <v>0.5227567978244142</v>
       </c>
       <c r="E5">
-        <v>0.002579717607634646</v>
+        <v>0.002545735655798964</v>
       </c>
       <c r="F5">
-        <v>0.9846855653307266</v>
+        <v>0.9714285714285715</v>
       </c>
       <c r="G5">
-        <v>0.005691308851960453</v>
+        <v>0.009835844314794229</v>
       </c>
       <c r="H5">
-        <v>0.3698572699058517</v>
+        <v>0.357923350506676</v>
       </c>
       <c r="I5">
-        <v>0.00238052389141763</v>
+        <v>0.001852069243451215</v>
       </c>
       <c r="J5">
-        <v>0.9600155736519372</v>
+        <v>0.9117929234256369</v>
       </c>
       <c r="K5">
-        <v>0.01378949067190494</v>
+        <v>0.02790393159807725</v>
       </c>
       <c r="L5">
-        <v>0.1169320321862695</v>
+        <v>0.1022058823529412</v>
       </c>
       <c r="M5">
-        <v>0.01088979373302227</v>
+        <v>0.01120090413058786</v>
       </c>
       <c r="N5">
-        <v>0.4158249158249157</v>
+        <v>0.3975728155339806</v>
       </c>
       <c r="O5">
-        <v>0.006236667185007927</v>
+        <v>0.00524097691926223</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -597,46 +597,46 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8122364648338675</v>
+        <v>0.8192899408284023</v>
       </c>
       <c r="C6">
-        <v>0.01303361425205607</v>
+        <v>0.01248793883344101</v>
       </c>
       <c r="D6">
-        <v>0.5546463077151231</v>
+        <v>0.5623793104528239</v>
       </c>
       <c r="E6">
-        <v>0.007025523599999972</v>
+        <v>0.00545250181772472</v>
       </c>
       <c r="F6">
-        <v>0.9573283858998144</v>
+        <v>0.9623076923076924</v>
       </c>
       <c r="G6">
-        <v>0.01659428038997557</v>
+        <v>0.01363371662093649</v>
       </c>
       <c r="H6">
-        <v>0.39305064328227</v>
+        <v>0.3986507982414114</v>
       </c>
       <c r="I6">
-        <v>0.007550821238330507</v>
+        <v>0.005190149802950461</v>
       </c>
       <c r="J6">
-        <v>0.94246457657322</v>
+        <v>0.9532242757242756</v>
       </c>
       <c r="K6">
-        <v>0.02537924365312683</v>
+        <v>0.01441033684544502</v>
       </c>
       <c r="L6">
-        <v>0.2481447124304267</v>
+        <v>0.2684615384615384</v>
       </c>
       <c r="M6">
-        <v>0.02710860735695234</v>
+        <v>0.01912843492174748</v>
       </c>
       <c r="N6">
-        <v>0.484539270253556</v>
+        <v>0.4997435897435898</v>
       </c>
       <c r="O6">
-        <v>0.01507198844079854</v>
+        <v>0.01059084313456993</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -644,46 +644,46 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8250413223140495</v>
+        <v>0.8279585798816571</v>
       </c>
       <c r="C7">
-        <v>0.01109645654679992</v>
+        <v>0.0117057049694137</v>
       </c>
       <c r="D7">
-        <v>0.5668991391478603</v>
+        <v>0.57933810072003</v>
       </c>
       <c r="E7">
-        <v>0.007864450897512087</v>
+        <v>0.007541389525366315</v>
       </c>
       <c r="F7">
-        <v>0.9454545454545453</v>
+        <v>0.9315384615384618</v>
       </c>
       <c r="G7">
-        <v>0.01935669909001991</v>
+        <v>0.01839469316044806</v>
       </c>
       <c r="H7">
-        <v>0.4109496447896911</v>
+        <v>0.4249986752429387</v>
       </c>
       <c r="I7">
-        <v>0.01144050213201692</v>
+        <v>0.009768682167910603</v>
       </c>
       <c r="J7">
-        <v>0.9173141176587133</v>
+        <v>0.9321314236331264</v>
       </c>
       <c r="K7">
-        <v>0.03586788457329448</v>
+        <v>0.01539055742587569</v>
       </c>
       <c r="L7">
-        <v>0.2968181818181818</v>
+        <v>0.3526923076923077</v>
       </c>
       <c r="M7">
-        <v>0.03316840365233215</v>
+        <v>0.02801521953336317</v>
       </c>
       <c r="N7">
-        <v>0.5130303030303029</v>
+        <v>0.5456410256410257</v>
       </c>
       <c r="O7">
-        <v>0.01787063597737673</v>
+        <v>0.01508365217045471</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -691,46 +691,46 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7758020014964457</v>
+        <v>0.7594297520661156</v>
       </c>
       <c r="C8">
-        <v>0.01047453858428771</v>
+        <v>0.008703365741019709</v>
       </c>
       <c r="D8">
-        <v>0.4852538584790116</v>
+        <v>0.5144660299300354</v>
       </c>
       <c r="E8">
-        <v>0.004143256654316807</v>
+        <v>0.005309618075492462</v>
       </c>
       <c r="F8">
-        <v>0.9607182940516275</v>
+        <v>0.9536363636363637</v>
       </c>
       <c r="G8">
-        <v>0.01122108322905124</v>
+        <v>0.01188673540808627</v>
       </c>
       <c r="H8">
-        <v>0.3254061312767286</v>
+        <v>0.3531782462803852</v>
       </c>
       <c r="I8">
-        <v>0.003959081949756249</v>
+        <v>0.004794716046777003</v>
       </c>
       <c r="J8">
-        <v>0.9584745292571298</v>
+        <v>0.9529222532446575</v>
       </c>
       <c r="K8">
-        <v>0.01080966495477054</v>
+        <v>0.0107503298517041</v>
       </c>
       <c r="L8">
-        <v>0.2478956228956229</v>
+        <v>0.2956363636363636</v>
       </c>
       <c r="M8">
-        <v>0.01784226439760205</v>
+        <v>0.01874683013324308</v>
       </c>
       <c r="N8">
-        <v>0.4423018059381695</v>
+        <v>0.4836363636363636</v>
       </c>
       <c r="O8">
-        <v>0.0110373784253775</v>
+        <v>0.01176686925151932</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -738,46 +738,46 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7666203703703702</v>
+        <v>0.7636363636363636</v>
       </c>
       <c r="C9">
-        <v>0.008427030866582585</v>
+        <v>0.008350796136305294</v>
       </c>
       <c r="D9">
-        <v>0.4709971961863735</v>
+        <v>0.5134933597349249</v>
       </c>
       <c r="E9">
-        <v>0.005839606215901127</v>
+        <v>0.005646164255753816</v>
       </c>
       <c r="F9">
-        <v>0.9522222222222223</v>
+        <v>0.9595454545454545</v>
       </c>
       <c r="G9">
-        <v>0.01320396562361936</v>
+        <v>0.01228880962571677</v>
       </c>
       <c r="H9">
-        <v>0.3145700166393536</v>
+        <v>0.351816523773299</v>
       </c>
       <c r="I9">
-        <v>0.005974741761322899</v>
+        <v>0.00538494942304113</v>
       </c>
       <c r="J9">
-        <v>0.8920124567866188</v>
+        <v>0.961482063743777</v>
       </c>
       <c r="K9">
-        <v>0.04649380101582679</v>
+        <v>0.01008562809325408</v>
       </c>
       <c r="L9">
-        <v>0.208125</v>
+        <v>0.2845454545454545</v>
       </c>
       <c r="M9">
-        <v>0.02782345516306017</v>
+        <v>0.02199171032421576</v>
       </c>
       <c r="N9">
-        <v>0.411060606060606</v>
+        <v>0.4774025974025974</v>
       </c>
       <c r="O9">
-        <v>0.01757512889998597</v>
+        <v>0.01373431562755489</v>
       </c>
     </row>
   </sheetData>
